--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/MyPOMFramework/PageObjectModel/src/main/java/com/crm/qa/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12210" windowHeight="4290" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:I12"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -186,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -221,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -398,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,9 +405,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -481,7 +474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -493,7 +486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
